--- a/Proyecto/data/profesores.xlsx
+++ b/Proyecto/data/profesores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVG\Final Round\Tesis\Prubeas\Git\TG2018\Proyecto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC1FFD-B3E0-4758-B7AD-5D81F1A8B431}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5EB1A0-487D-41BE-B429-85DF60387AC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="2" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="32">
   <si>
     <t>No. Per.</t>
   </si>
@@ -111,14 +111,32 @@
     <t>IE3048</t>
   </si>
   <si>
-    <t>MM2039</t>
+    <t>IE2010</t>
+  </si>
+  <si>
+    <t>IE2008</t>
+  </si>
+  <si>
+    <t>IE2016</t>
+  </si>
+  <si>
+    <t>IE3028</t>
+  </si>
+  <si>
+    <t>IE2011</t>
+  </si>
+  <si>
+    <t>IE2009</t>
+  </si>
+  <si>
+    <t>IE2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,16 +160,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -284,30 +292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -504,19 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -539,69 +510,102 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -611,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -628,43 +632,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,175 +719,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098A41C1-A973-4B3A-9E26-E4499DF2AB67}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,61 +1107,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="73" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="71" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1253,9 +1188,9 @@
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1267,19 +1202,29 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="60" t="s">
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="22">
         <v>1</v>
       </c>
-      <c r="K5" s="61">
-        <v>0</v>
+      <c r="K5" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1292,18 +1237,28 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="63" t="s">
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="40">
-        <v>2</v>
-      </c>
-      <c r="K6" s="41">
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1317,19 +1272,29 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="40">
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="41">
-        <v>2</v>
+      <c r="K7" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1342,24 +1307,30 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1371,14 +1342,14 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1390,14 +1361,24 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1409,14 +1390,24 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1428,14 +1419,24 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1447,14 +1448,14 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1466,14 +1467,14 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1485,14 +1486,14 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1504,14 +1505,14 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1523,14 +1524,14 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1542,14 +1543,14 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1561,24 +1562,14 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1590,27 +1581,17 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+      <c r="A21" s="15">
         <v>16</v>
       </c>
       <c r="B21" s="4">
@@ -1619,51 +1600,33 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47">
+      <c r="A22" s="11">
         <v>17</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="12">
         <v>0.86111111111111116</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="12">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="65"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1686,7 +1649,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,61 +1660,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="73" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="71" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1775,12 +1738,12 @@
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1804,15 +1767,17 @@
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="76">
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="47">
         <v>1</v>
       </c>
-      <c r="K5" s="61">
-        <v>0</v>
+      <c r="K5" s="48">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1837,15 +1802,17 @@
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="40">
-        <v>2</v>
-      </c>
-      <c r="K6" s="41">
-        <v>1</v>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1870,16 +1837,12 @@
       <c r="G7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="40">
-        <v>1</v>
-      </c>
-      <c r="K7" s="41">
-        <v>2</v>
-      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1903,10 +1866,12 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1922,10 +1887,10 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1937,14 +1902,14 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1956,14 +1921,14 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1976,13 +1941,13 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1998,10 +1963,10 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2017,10 +1982,10 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2033,13 +1998,13 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2051,14 +2016,14 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2071,13 +2036,13 @@
         <v>0.71875</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="44"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2089,24 +2054,14 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2130,12 +2085,12 @@
       <c r="G19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2147,64 +2102,84 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+      <c r="A21" s="15">
         <v>16</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="14">
         <v>0.82638888888888884</v>
       </c>
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47">
+      <c r="A22" s="11">
         <v>17</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="12">
         <v>0.86111111111111116</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="12">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="65"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="K2:K4"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="K2:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2215,7 +2190,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D22"/>
+      <selection activeCell="D10" sqref="D10:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,63 +2201,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="73" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="71" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2307,9 +2282,9 @@
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2324,18 +2299,26 @@
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="76">
-        <v>0</v>
-      </c>
-      <c r="K5" s="61">
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="8">
         <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2351,18 +2334,26 @@
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="40">
-        <v>0</v>
-      </c>
-      <c r="K6" s="41">
-        <v>1</v>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2378,18 +2369,26 @@
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="40">
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="41">
-        <v>1</v>
+      <c r="K7" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2405,13 +2404,21 @@
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2423,16 +2430,14 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2447,13 +2452,21 @@
       <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2468,13 +2481,21 @@
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2489,13 +2510,21 @@
       <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2510,13 +2539,21 @@
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2531,13 +2568,21 @@
       <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2552,13 +2597,21 @@
       <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2570,16 +2623,14 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2591,16 +2642,14 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="44"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2612,14 +2661,14 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2631,14 +2680,14 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2650,17 +2699,17 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+      <c r="A21" s="15">
         <v>16</v>
       </c>
       <c r="B21" s="4">
@@ -2669,37 +2718,37 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47">
+      <c r="A22" s="11">
         <v>17</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="12">
         <v>0.86111111111111116</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="12">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="65"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Proyecto/data/profesores.xlsx
+++ b/Proyecto/data/profesores.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVG\Final Round\Tesis\Prubeas\Git\TG2018\Proyecto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5EB1A0-487D-41BE-B429-85DF60387AC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C224240D-3A50-467E-A6AA-954B33535090}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="2" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="4" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
   </bookViews>
   <sheets>
     <sheet name="Miguel" sheetId="1" r:id="rId1"/>
     <sheet name="Profesor2" sheetId="2" r:id="rId2"/>
     <sheet name="Mauricio" sheetId="3" r:id="rId3"/>
+    <sheet name="profesor4" sheetId="8" r:id="rId4"/>
+    <sheet name="Profesor5" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="35">
   <si>
     <t>No. Per.</t>
   </si>
@@ -71,9 +73,6 @@
   </si>
   <si>
     <t>Miguel nose</t>
-  </si>
-  <si>
-    <t>apellido apellido 2</t>
   </si>
   <si>
     <t>x</t>
@@ -130,6 +129,18 @@
   </si>
   <si>
     <t>IE2013</t>
+  </si>
+  <si>
+    <t>apellido apellido2</t>
+  </si>
+  <si>
+    <t>Apellido1 Apellido2</t>
+  </si>
+  <si>
+    <t>Profesor4 SegundoN</t>
+  </si>
+  <si>
+    <t>Profesor5 segundoN5</t>
   </si>
 </sst>
 </file>
@@ -196,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -254,32 +265,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -598,24 +583,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -632,152 +604,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098A41C1-A973-4B3A-9E26-E4499DF2AB67}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,61 +1061,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="27" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1188,9 +1142,9 @@
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1203,27 +1157,27 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="22">
+        <v>13</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="19">
         <v>1</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1238,28 +1192,28 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="8">
+        <v>13</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="9">
-        <v>1</v>
+      <c r="K6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1273,27 +1227,27 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="8">
+        <v>13</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1308,29 +1262,23 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="9">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1342,14 +1290,24 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1362,23 +1320,23 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1391,23 +1349,23 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1420,23 +1378,23 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1448,14 +1406,24 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1467,14 +1435,24 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1486,14 +1464,24 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1505,14 +1493,24 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1524,14 +1522,24 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1543,14 +1551,24 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1562,14 +1580,24 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1581,17 +1609,27 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>16</v>
       </c>
       <c r="B21" s="4">
@@ -1600,33 +1638,53 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>17</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>0.86111111111111116</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="21"/>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1649,7 +1707,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,61 +1718,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="41" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="45" t="s">
+      <c r="K2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="50" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="51"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1741,9 +1799,9 @@
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1756,27 +1814,27 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="47">
-        <v>1</v>
-      </c>
-      <c r="K5" s="48">
+        <v>13</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1791,28 +1849,28 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="8">
-        <v>3</v>
-      </c>
-      <c r="K6" s="9">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1826,23 +1884,29 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1855,23 +1919,23 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1883,14 +1947,24 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1902,14 +1976,24 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1921,14 +2005,24 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1940,14 +2034,24 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1959,14 +2063,24 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1978,14 +2092,24 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1997,14 +2121,24 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2016,14 +2150,24 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2035,14 +2179,24 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2054,14 +2208,24 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2074,23 +2238,23 @@
         <v>0.78819444444444453</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2103,71 +2267,81 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>16</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>0.82638888888888884</v>
       </c>
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>17</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>0.86111111111111116</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="21"/>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2189,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A37FC12-CDA1-49E1-90C4-3F304A137FD6}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,61 +2375,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37" t="s">
+      <c r="K2" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2282,9 +2456,9 @@
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2297,28 +2471,28 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="8">
+        <v>13</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
         <v>1</v>
-      </c>
-      <c r="K5" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2332,28 +2506,28 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8">
+        <v>13</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
         <v>3</v>
-      </c>
-      <c r="K6" s="9">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2367,28 +2541,28 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
+        <v>13</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="6">
         <v>2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2402,23 +2576,23 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2430,14 +2604,24 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2450,23 +2634,23 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2479,23 +2663,23 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2508,23 +2692,23 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2537,23 +2721,23 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2566,23 +2750,23 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2595,23 +2779,23 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2623,14 +2807,24 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2642,14 +2836,24 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2661,14 +2865,24 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2680,14 +2894,24 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2699,17 +2923,27 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>16</v>
       </c>
       <c r="B21" s="4">
@@ -2718,37 +2952,57 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>17</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>0.86111111111111116</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="21"/>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2765,4 +3019,1313 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AB0DA3-8E6D-45A6-AF49-0E99EB946695}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.71875</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FD2796-4B03-4561-AD4A-9F2BE7EB9F1D}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.71875</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Proyecto/data/profesores.xlsx
+++ b/Proyecto/data/profesores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVG\Final Round\Tesis\Prubeas\Git\TG2018\Proyecto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C224240D-3A50-467E-A6AA-954B33535090}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E2C97D-F5F6-4710-A8C0-28554CA4EB79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="4" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
   </bookViews>
   <sheets>
     <sheet name="Miguel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="35">
   <si>
     <t>No. Per.</t>
   </si>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098A41C1-A973-4B3A-9E26-E4499DF2AB67}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,21 +1156,15 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="14" t="s">
         <v>22</v>
       </c>
@@ -1191,21 +1185,15 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="16" t="s">
         <v>23</v>
       </c>
@@ -1226,21 +1214,15 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="16" t="s">
         <v>26</v>
       </c>
@@ -1261,21 +1243,15 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1290,21 +1266,11 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="16"/>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
@@ -1319,21 +1285,15 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -1348,21 +1308,15 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -1377,21 +1331,15 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -1406,21 +1354,15 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -1435,21 +1377,15 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -1464,21 +1400,15 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -1493,21 +1423,15 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -1522,21 +1446,15 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -1551,21 +1469,15 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -1580,21 +1492,15 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -1609,21 +1515,15 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -1638,21 +1538,15 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -1667,21 +1561,15 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
@@ -1707,7 +1595,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,15 +1707,9 @@
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="16" t="s">
         <v>23</v>
       </c>
@@ -1854,15 +1736,9 @@
       <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
@@ -1889,15 +1765,9 @@
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="16" t="s">
         <v>29</v>
       </c>
@@ -1924,15 +1794,9 @@
       <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1947,21 +1811,11 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="16"/>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
@@ -1982,15 +1836,9 @@
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -2011,15 +1859,9 @@
       <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -2040,15 +1882,9 @@
       <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -2069,15 +1905,9 @@
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -2098,15 +1928,9 @@
       <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -2127,15 +1951,9 @@
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -2156,15 +1974,9 @@
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -2185,15 +1997,9 @@
       <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -2214,15 +2020,9 @@
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -2243,15 +2043,9 @@
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -2272,15 +2066,9 @@
       <c r="E20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -2301,15 +2089,9 @@
       <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -2330,15 +2112,9 @@
       <c r="E22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
@@ -2364,7 +2140,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,18 +2246,10 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2505,18 +2273,10 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2540,18 +2300,10 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2575,18 +2327,10 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
@@ -2604,21 +2348,11 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="16"/>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
@@ -2633,18 +2367,10 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2662,18 +2388,10 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2691,18 +2409,10 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
@@ -2720,18 +2430,10 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2749,18 +2451,10 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
@@ -2778,18 +2472,10 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2807,18 +2493,10 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2836,18 +2514,10 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2865,18 +2535,10 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
         <v>13</v>
       </c>
@@ -2894,18 +2556,10 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
         <v>13</v>
       </c>
@@ -2923,18 +2577,10 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
         <v>13</v>
       </c>
@@ -2952,18 +2598,10 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
         <v>13</v>
       </c>
@@ -2981,18 +2619,10 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
         <v>13</v>
       </c>
@@ -3026,7 +2656,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H5" sqref="H5:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,18 +2762,10 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
@@ -3167,18 +2789,10 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
@@ -3202,18 +2816,10 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3237,18 +2843,10 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
@@ -3266,21 +2864,11 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="16"/>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
@@ -3295,18 +2883,10 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
@@ -3324,18 +2904,10 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3353,18 +2925,10 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
@@ -3382,18 +2946,10 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
         <v>13</v>
       </c>
@@ -3411,18 +2967,10 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
@@ -3440,18 +2988,10 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
         <v>13</v>
       </c>
@@ -3469,18 +3009,10 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
         <v>13</v>
       </c>
@@ -3498,18 +3030,10 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
         <v>13</v>
       </c>
@@ -3527,18 +3051,10 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3556,18 +3072,10 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
         <v>13</v>
       </c>
@@ -3585,18 +3093,10 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
         <v>13</v>
       </c>
@@ -3614,18 +3114,10 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
         <v>13</v>
       </c>
@@ -3643,18 +3135,10 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
         <v>13</v>
       </c>
@@ -3682,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FD2796-4B03-4561-AD4A-9F2BE7EB9F1D}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3784,21 +3268,13 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="16" t="s">
         <v>28</v>
       </c>
@@ -3819,21 +3295,13 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="16" t="s">
         <v>24</v>
       </c>
@@ -3854,21 +3322,13 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="16" t="s">
         <v>30</v>
       </c>
@@ -3889,21 +3349,13 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -3918,21 +3370,11 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="16"/>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
@@ -3947,21 +3389,13 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -3976,21 +3410,13 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -4005,21 +3431,13 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -4034,21 +3452,13 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -4063,21 +3473,13 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -4092,21 +3494,13 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -4121,21 +3515,13 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -4150,21 +3536,13 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -4179,21 +3557,13 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -4208,21 +3578,13 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -4237,21 +3599,13 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -4266,21 +3620,13 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -4295,21 +3641,13 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="H22" s="10"/>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>

--- a/Proyecto/data/profesores.xlsx
+++ b/Proyecto/data/profesores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVG\Final Round\Tesis\Prubeas\Git\TG2018\Proyecto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E2C97D-F5F6-4710-A8C0-28554CA4EB79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BEDC2D-7916-46B4-A395-7014F7EE1BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="4" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
   </bookViews>
   <sheets>
     <sheet name="Miguel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="35">
   <si>
     <t>No. Per.</t>
   </si>
@@ -1049,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098A41C1-A973-4B3A-9E26-E4499DF2AB67}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,15 +1701,17 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="16" t="s">
         <v>23</v>
       </c>
@@ -1730,15 +1732,17 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
@@ -1759,15 +1763,17 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="16" t="s">
         <v>29</v>
       </c>
@@ -1788,15 +1794,17 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1830,15 +1838,17 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -1853,15 +1863,17 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -1876,15 +1888,17 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -1899,15 +1913,17 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -1922,15 +1938,17 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -1945,15 +1963,17 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -1968,15 +1988,17 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -1991,15 +2013,17 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -2014,15 +2038,17 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -2037,15 +2063,17 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -2060,15 +2088,17 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -2083,15 +2113,17 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -2106,15 +2138,17 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
@@ -2140,7 +2174,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H5" sqref="H5:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,13 +2280,19 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
@@ -2273,13 +2313,19 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="16" t="s">
         <v>29</v>
       </c>
@@ -2300,13 +2346,19 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="16" t="s">
         <v>27</v>
       </c>
@@ -2327,13 +2379,19 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -2367,13 +2425,19 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -2388,13 +2452,19 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -2409,13 +2479,19 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -2430,13 +2506,19 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -2451,13 +2533,19 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -2472,13 +2560,19 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -2493,13 +2587,19 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -2514,13 +2614,19 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -2535,13 +2641,19 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -2556,13 +2668,19 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -2577,13 +2695,19 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -2598,13 +2722,19 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -2619,13 +2749,19 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="10"/>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
@@ -2762,13 +2898,19 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="16" t="s">
         <v>28</v>
       </c>
@@ -2789,13 +2931,19 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="16" t="s">
         <v>24</v>
       </c>
@@ -2816,13 +2964,19 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="16" t="s">
         <v>30</v>
       </c>
@@ -2843,13 +2997,19 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -2883,13 +3043,19 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -2904,13 +3070,19 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -2925,13 +3097,19 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -2946,13 +3124,19 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -2967,13 +3151,19 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -2988,13 +3178,19 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -3009,13 +3205,19 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -3030,13 +3232,19 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -3051,13 +3259,19 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -3072,13 +3286,19 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -3093,13 +3313,19 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -3114,13 +3340,19 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -3135,13 +3367,19 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="10"/>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
@@ -3166,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FD2796-4B03-4561-AD4A-9F2BE7EB9F1D}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,13 +3506,19 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="16" t="s">
         <v>28</v>
       </c>
@@ -3295,13 +3539,19 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="16" t="s">
         <v>24</v>
       </c>
@@ -3322,13 +3572,19 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="16" t="s">
         <v>30</v>
       </c>
@@ -3349,13 +3605,19 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -3389,13 +3651,19 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -3410,13 +3678,19 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -3431,13 +3705,19 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -3452,13 +3732,19 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -3473,13 +3759,19 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -3494,13 +3786,19 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -3515,13 +3813,19 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -3536,13 +3840,19 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -3557,13 +3867,19 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -3578,13 +3894,19 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -3599,13 +3921,19 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -3620,13 +3948,19 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -3641,13 +3975,19 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>

--- a/Proyecto/data/profesores.xlsx
+++ b/Proyecto/data/profesores.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVG\Final Round\Tesis\Prubeas\Git\TG2018\Proyecto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BEDC2D-7916-46B4-A395-7014F7EE1BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9759BA6-860E-46D5-B374-758BABBE8E1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="4" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" firstSheet="1" activeTab="4" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
   </bookViews>
   <sheets>
-    <sheet name="Miguel" sheetId="1" r:id="rId1"/>
-    <sheet name="Profesor2" sheetId="2" r:id="rId2"/>
+    <sheet name="profesor1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diego" sheetId="2" r:id="rId2"/>
     <sheet name="Mauricio" sheetId="3" r:id="rId3"/>
     <sheet name="profesor4" sheetId="8" r:id="rId4"/>
     <sheet name="Profesor5" sheetId="9" r:id="rId5"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="34">
   <si>
     <t>No. Per.</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Nombres:</t>
   </si>
   <si>
-    <t>Miguel nose</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
   </si>
   <si>
     <t>Maurucio Rodrigo</t>
-  </si>
-  <si>
-    <t>Apellido1 Sepa</t>
   </si>
   <si>
     <t>Codigo</t>
@@ -137,10 +131,13 @@
     <t>Apellido1 Apellido2</t>
   </si>
   <si>
-    <t>Profesor4 SegundoN</t>
+    <t>Profesor4</t>
   </si>
   <si>
-    <t>Profesor5 segundoN5</t>
+    <t>profesor 5</t>
+  </si>
+  <si>
+    <t>profesor 1</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1047,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1069,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="I1" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="27"/>
@@ -1085,19 +1082,19 @@
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
       <c r="E2" s="34" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="36"/>
       <c r="I2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1108,7 +1105,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -1156,17 +1153,23 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" s="19">
         <v>1</v>
@@ -1185,17 +1188,23 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1214,17 +1223,23 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -1243,15 +1258,21 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1285,15 +1306,21 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -1308,15 +1335,21 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -1331,15 +1364,21 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -1354,15 +1393,21 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -1378,12 +1423,8 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="16"/>
@@ -1401,12 +1442,8 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="16"/>
@@ -1424,12 +1461,8 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="16"/>
@@ -1447,12 +1480,8 @@
         <v>0.71875</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="16"/>
@@ -1470,12 +1499,8 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="16"/>
@@ -1493,12 +1518,8 @@
         <v>0.78819444444444453</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="16"/>
@@ -1516,12 +1537,8 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="16"/>
@@ -1539,12 +1556,8 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="16"/>
@@ -1562,12 +1575,8 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="17"/>
@@ -1595,7 +1604,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E22"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1626,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="43"/>
       <c r="K1" s="44"/>
@@ -1630,19 +1639,19 @@
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
       <c r="E2" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="48"/>
       <c r="I2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="39" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1653,7 +1662,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -1703,17 +1712,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
@@ -1734,17 +1737,11 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1765,17 +1762,11 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" s="6">
         <v>2</v>
@@ -1796,15 +1787,9 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1840,15 +1825,9 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -1865,15 +1844,9 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -1890,15 +1863,9 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -1913,16 +1880,20 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
@@ -1938,16 +1909,20 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
@@ -1963,16 +1938,20 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
@@ -1988,16 +1967,20 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
@@ -2013,16 +1996,20 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
@@ -2038,16 +2025,20 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
@@ -2063,16 +2054,20 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
@@ -2088,16 +2083,20 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
@@ -2113,16 +2112,20 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
@@ -2138,16 +2141,20 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
@@ -2174,7 +2181,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2203,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="I1" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="27"/>
@@ -2209,19 +2216,19 @@
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
       <c r="E2" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="48"/>
       <c r="I2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2232,7 +2239,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -2280,21 +2287,13 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
@@ -2313,21 +2312,13 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -2346,21 +2337,13 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="6">
         <v>2</v>
@@ -2379,18 +2362,10 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
@@ -2425,18 +2400,10 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
@@ -2452,18 +2419,10 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
@@ -2479,18 +2438,10 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
@@ -2507,18 +2458,20 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -2534,18 +2487,20 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -2561,18 +2516,20 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -2588,18 +2545,20 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -2615,18 +2574,20 @@
         <v>0.71875</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -2642,18 +2603,20 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -2669,18 +2632,20 @@
         <v>0.78819444444444453</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -2696,18 +2661,20 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -2723,18 +2690,20 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -2750,18 +2719,20 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
@@ -2792,7 +2763,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H22"/>
+      <selection activeCell="D5" sqref="D5:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,7 +2785,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="I1" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="27"/>
@@ -2827,19 +2798,19 @@
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
       <c r="E2" s="34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="48"/>
       <c r="I2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2850,7 +2821,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -2899,20 +2870,22 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -2932,20 +2905,22 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
@@ -2965,20 +2940,22 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -2998,18 +2975,20 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -3044,18 +3023,20 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -3071,18 +3052,20 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -3098,18 +3081,20 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -3125,18 +3110,20 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -3151,18 +3138,10 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
@@ -3178,18 +3157,10 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
@@ -3205,18 +3176,10 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
@@ -3232,18 +3195,10 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
@@ -3259,18 +3214,10 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
@@ -3286,18 +3233,10 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
@@ -3313,18 +3252,10 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
@@ -3340,18 +3271,10 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
@@ -3367,18 +3290,10 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
@@ -3405,7 +3320,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,7 +3337,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="I1" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="27"/>
@@ -3435,19 +3350,19 @@
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
       <c r="E2" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="48"/>
       <c r="I2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3458,7 +3373,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -3507,20 +3422,22 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
@@ -3540,20 +3457,22 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -3573,20 +3492,22 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -3606,17 +3527,19 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
@@ -3652,17 +3575,19 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
@@ -3679,17 +3604,19 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
@@ -3706,17 +3633,19 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
@@ -3733,17 +3662,19 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
@@ -3759,19 +3690,11 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -3786,19 +3709,11 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -3813,19 +3728,11 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -3840,19 +3747,11 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -3867,19 +3766,11 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -3894,19 +3785,11 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -3921,19 +3804,11 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -3948,19 +3823,11 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -3975,19 +3842,11 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="H22" s="10"/>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>

--- a/Proyecto/data/profesores.xlsx
+++ b/Proyecto/data/profesores.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVG\Final Round\Tesis\Prubeas\Git\TG2018\Proyecto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9759BA6-860E-46D5-B374-758BABBE8E1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DE1523-D6F8-4070-9AC8-FC68FD594237}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" firstSheet="1" activeTab="4" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{13BC5F08-0E1E-4337-855E-932CC9DF5409}"/>
   </bookViews>
   <sheets>
     <sheet name="profesor1" sheetId="1" r:id="rId1"/>
-    <sheet name="Diego" sheetId="2" r:id="rId2"/>
-    <sheet name="Mauricio" sheetId="3" r:id="rId3"/>
+    <sheet name="profesor2" sheetId="2" r:id="rId2"/>
+    <sheet name="profesor3" sheetId="3" r:id="rId3"/>
     <sheet name="profesor4" sheetId="8" r:id="rId4"/>
-    <sheet name="Profesor5" sheetId="9" r:id="rId5"/>
+    <sheet name="profesor5" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="33">
   <si>
     <t>No. Per.</t>
   </si>
@@ -73,15 +73,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Regalado Samayoa</t>
-  </si>
-  <si>
-    <t>Diego Pablo</t>
-  </si>
-  <si>
-    <t>Maurucio Rodrigo</t>
   </si>
   <si>
     <t>Codigo</t>
@@ -131,13 +122,19 @@
     <t>Apellido1 Apellido2</t>
   </si>
   <si>
-    <t>Profesor4</t>
-  </si>
-  <si>
     <t>profesor 5</t>
   </si>
   <si>
     <t>profesor 1</t>
+  </si>
+  <si>
+    <t>profesor 2</t>
+  </si>
+  <si>
+    <t>profesor4</t>
+  </si>
+  <si>
+    <t>profesor3</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098A41C1-A973-4B3A-9E26-E4499DF2AB67}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1066,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="I1" s="25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="27"/>
@@ -1082,19 +1079,19 @@
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
       <c r="E2" s="34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="36"/>
       <c r="I2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1105,7 +1102,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -1169,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5" s="19">
         <v>1</v>
@@ -1204,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1239,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -1258,21 +1255,11 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1306,21 +1293,11 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -1335,21 +1312,11 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -1364,21 +1331,11 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -1393,21 +1350,11 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -1479,8 +1426,12 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1498,8 +1449,12 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1517,11 +1472,21 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -1536,11 +1501,21 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -1555,11 +1530,21 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -1574,11 +1559,21 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
@@ -1604,7 +1599,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H27" sqref="H27:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1621,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="43"/>
       <c r="K1" s="44"/>
@@ -1639,19 +1634,19 @@
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
       <c r="E2" s="34" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="48"/>
       <c r="I2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="45" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1662,7 +1657,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -1710,13 +1705,23 @@
       <c r="C5" s="4">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
@@ -1735,13 +1740,23 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1760,13 +1775,23 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" s="6">
         <v>2</v>
@@ -1785,11 +1810,21 @@
       <c r="C8" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1823,11 +1858,21 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -1842,11 +1887,21 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -1861,11 +1916,21 @@
       <c r="C12" s="4">
         <v>0.54513888888888895</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -1880,21 +1945,13 @@
       <c r="C13" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -1909,21 +1966,13 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -1938,21 +1987,13 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -1967,21 +2008,13 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -1996,21 +2029,13 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -2025,21 +2050,13 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -2054,21 +2071,13 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -2083,21 +2092,13 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -2112,21 +2113,13 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -2141,21 +2134,13 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
@@ -2181,7 +2166,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,7 +2188,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="I1" s="25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="27"/>
@@ -2216,19 +2201,19 @@
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
       <c r="E2" s="34" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="48"/>
       <c r="I2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2239,7 +2224,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -2293,7 +2278,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
@@ -2312,13 +2297,23 @@
       <c r="C6" s="4">
         <v>0.3576388888888889</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -2337,13 +2332,23 @@
       <c r="C7" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>2</v>
@@ -2381,11 +2386,21 @@
       <c r="C9" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="16"/>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
@@ -2400,11 +2415,21 @@
       <c r="C10" s="4">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
@@ -2419,11 +2444,21 @@
       <c r="C11" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -2660,21 +2695,11 @@
       <c r="C20" s="4">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -2689,21 +2714,11 @@
       <c r="C21" s="4">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -2718,21 +2733,11 @@
       <c r="C22" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
@@ -2763,7 +2768,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:H13"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,7 +2790,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="I1" s="25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="27"/>
@@ -2804,13 +2809,13 @@
       <c r="G2" s="35"/>
       <c r="H2" s="48"/>
       <c r="I2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2821,7 +2826,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -2885,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
@@ -2920,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
@@ -2955,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -3138,8 +3143,12 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3157,8 +3166,12 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -3176,8 +3189,12 @@
       <c r="C16" s="4">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3195,8 +3212,12 @@
       <c r="C17" s="4">
         <v>0.71875</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -3214,8 +3235,12 @@
       <c r="C18" s="4">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -3233,8 +3258,12 @@
       <c r="C19" s="4">
         <v>0.78819444444444453</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -3319,8 +3348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FD2796-4B03-4561-AD4A-9F2BE7EB9F1D}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,7 +3366,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
       <c r="I1" s="25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="27"/>
@@ -3350,19 +3379,19 @@
       <c r="C2" s="32"/>
       <c r="D2" s="33"/>
       <c r="E2" s="34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="48"/>
       <c r="I2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3373,7 +3402,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -3437,7 +3466,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
@@ -3472,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -3507,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -3690,11 +3719,21 @@
       <c r="C14" s="4">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -3709,11 +3748,21 @@
       <c r="C15" s="4">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -3731,8 +3780,12 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -3750,8 +3803,12 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I17" s="16"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -3769,8 +3826,12 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -3788,8 +3849,12 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -3807,8 +3872,12 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -3826,8 +3895,12 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -3845,8 +3918,12 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I22" s="17"/>
       <c r="J22" s="20"/>
       <c r="K22" s="18"/>
